--- a/P2P Data Input.xlsx
+++ b/P2P Data Input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Matlab Folder\Project NTNU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D23B52-AE05-4EEF-BA33-CA8D2F47FE66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D366B8DB-09A9-4B96-870D-B50A2FA59047}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Welcome" sheetId="7" r:id="rId1"/>
@@ -8434,8 +8434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3803DCFA-E8F2-414B-AB26-F0C29419DDF6}">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8453,7 +8453,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5">
-        <v>13.603551502103954</v>
+        <v>0</v>
       </c>
       <c r="C2" s="5"/>
     </row>
@@ -8462,7 +8462,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5">
-        <v>14.02281695854623</v>
+        <v>0</v>
       </c>
       <c r="C3" s="5"/>
     </row>
@@ -8471,7 +8471,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5">
-        <v>13.635802691061054</v>
+        <v>0</v>
       </c>
       <c r="C4" s="5"/>
     </row>
@@ -8480,7 +8480,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5">
-        <v>12.410257510691327</v>
+        <v>0</v>
       </c>
       <c r="C5" s="5"/>
     </row>
@@ -8489,7 +8489,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5">
-        <v>12.023243243206151</v>
+        <v>0</v>
       </c>
       <c r="C6" s="5"/>
     </row>
@@ -8498,7 +8498,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5">
-        <v>11.687830878052331</v>
+        <v>0</v>
       </c>
       <c r="C7" s="5"/>
     </row>
@@ -8507,7 +8507,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5">
-        <v>10.37198236860273</v>
+        <v>0</v>
       </c>
       <c r="C8" s="5"/>
     </row>
@@ -8516,7 +8516,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5">
-        <v>9.7656600162092868</v>
+        <v>0</v>
       </c>
       <c r="C9" s="5"/>
     </row>
@@ -8525,7 +8525,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5">
-        <v>9.7366339461479008</v>
+        <v>0</v>
       </c>
       <c r="C10" s="5"/>
     </row>
@@ -8534,7 +8534,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5">
-        <v>9.4947500289696638</v>
+        <v>0</v>
       </c>
       <c r="C11" s="5"/>
     </row>
@@ -8543,7 +8543,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5">
-        <v>9.6173045470066363</v>
+        <v>0</v>
       </c>
       <c r="C12" s="5"/>
     </row>
@@ -8552,7 +8552,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5">
-        <v>9.6011789525280875</v>
+        <v>0</v>
       </c>
       <c r="C13" s="5"/>
     </row>
@@ -8561,7 +8561,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5">
-        <v>9.5979538336323778</v>
+        <v>0</v>
       </c>
       <c r="C14" s="5"/>
     </row>
@@ -8570,7 +8570,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5">
-        <v>9.5753780013624112</v>
+        <v>0</v>
       </c>
       <c r="C15" s="5"/>
     </row>
@@ -8579,7 +8579,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5">
-        <v>9.8978898909333886</v>
+        <v>0</v>
       </c>
       <c r="C16" s="5"/>
     </row>
@@ -8588,7 +8588,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5">
-        <v>9.9849681011175537</v>
+        <v>0</v>
       </c>
       <c r="C17" s="5"/>
     </row>
@@ -8597,7 +8597,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5">
-        <v>10.136548689215914</v>
+        <v>0</v>
       </c>
       <c r="C18" s="5"/>
     </row>
@@ -8606,7 +8606,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5">
-        <v>10.001093695596103</v>
+        <v>0</v>
       </c>
       <c r="C19" s="5"/>
     </row>
@@ -8615,7 +8615,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5">
-        <v>10.094622143571687</v>
+        <v>0</v>
       </c>
       <c r="C20" s="5"/>
     </row>
@@ -8624,7 +8624,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5">
-        <v>10.923477699769105</v>
+        <v>0</v>
       </c>
       <c r="C21" s="5"/>
     </row>
@@ -8633,7 +8633,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5">
-        <v>11.587852192285327</v>
+        <v>0</v>
       </c>
       <c r="C22" s="5"/>
     </row>
@@ -8642,7 +8642,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5">
-        <v>11.613653143451005</v>
+        <v>0</v>
       </c>
       <c r="C23" s="5"/>
     </row>
@@ -8651,7 +8651,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5">
-        <v>15.448319510449963</v>
+        <v>0</v>
       </c>
       <c r="C24" s="5"/>
     </row>
@@ -8660,7 +8660,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5">
-        <v>15.141933215357533</v>
+        <v>0</v>
       </c>
       <c r="C25" s="5"/>
     </row>
@@ -8669,7 +8669,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5">
-        <v>14.587212765295444</v>
+        <v>0</v>
       </c>
       <c r="C26" s="5"/>
     </row>
@@ -8678,7 +8678,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5">
-        <v>16.138494954131861</v>
+        <v>0</v>
       </c>
       <c r="C27" s="5"/>
     </row>
@@ -8687,7 +8687,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5">
-        <v>13.951864342840611</v>
+        <v>0</v>
       </c>
       <c r="C28" s="5"/>
     </row>
@@ -8696,7 +8696,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5">
-        <v>14.213098973393107</v>
+        <v>0</v>
       </c>
       <c r="C29" s="5"/>
     </row>
@@ -8705,7 +8705,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5">
-        <v>14.109895168730393</v>
+        <v>0</v>
       </c>
       <c r="C30" s="5"/>
     </row>
@@ -8714,7 +8714,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5">
-        <v>13.106883192164645</v>
+        <v>0</v>
       </c>
       <c r="C31" s="5"/>
     </row>
@@ -8723,7 +8723,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5">
-        <v>15.241911901124535</v>
+        <v>0</v>
       </c>
       <c r="C32" s="5"/>
     </row>
@@ -8732,7 +8732,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5">
-        <v>15.241911901124535</v>
+        <v>0</v>
       </c>
       <c r="C33" s="5"/>
     </row>
@@ -8741,7 +8741,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5">
-        <v>15.299964041247311</v>
+        <v>0</v>
       </c>
       <c r="C34" s="5"/>
     </row>
@@ -8750,7 +8750,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="5">
-        <v>16.899623013519378</v>
+        <v>0</v>
       </c>
       <c r="C35" s="5"/>
     </row>
@@ -8759,7 +8759,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5">
-        <v>20.318249042971765</v>
+        <v>0</v>
       </c>
       <c r="C36" s="5"/>
     </row>
@@ -8768,7 +8768,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="5">
-        <v>19.689350858308352</v>
+        <v>0</v>
       </c>
       <c r="C37" s="5"/>
     </row>
@@ -8777,7 +8777,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5">
-        <v>17.570447743827014</v>
+        <v>0</v>
       </c>
       <c r="C38" s="5"/>
     </row>
@@ -8786,7 +8786,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="5">
-        <v>17.999388556956418</v>
+        <v>0</v>
       </c>
       <c r="C39" s="5"/>
     </row>
@@ -8795,7 +8795,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5">
-        <v>14.635589548731094</v>
+        <v>0</v>
       </c>
       <c r="C40" s="5"/>
     </row>
@@ -8804,7 +8804,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="5">
-        <v>15.596674979652613</v>
+        <v>0</v>
       </c>
       <c r="C41" s="5"/>
     </row>
@@ -8813,7 +8813,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="5">
-        <v>15.267712852290213</v>
+        <v>0</v>
       </c>
       <c r="C42" s="5"/>
     </row>
@@ -8822,7 +8822,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="5">
-        <v>15.422518559284285</v>
+        <v>0</v>
       </c>
       <c r="C43" s="5"/>
     </row>
@@ -8831,7 +8831,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="5">
-        <v>12.887575107256378</v>
+        <v>0</v>
       </c>
       <c r="C44" s="5"/>
     </row>
@@ -8840,7 +8840,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="5">
-        <v>12.777921064802245</v>
+        <v>0</v>
       </c>
       <c r="C45" s="5"/>
     </row>
@@ -8849,7 +8849,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5">
-        <v>12.410257510691327</v>
+        <v>0</v>
       </c>
       <c r="C46" s="5"/>
     </row>
@@ -8858,7 +8858,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="5">
-        <v>12.413482629587037</v>
+        <v>0</v>
       </c>
       <c r="C47" s="5"/>
     </row>
@@ -8867,7 +8867,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="5">
-        <v>11.839411466150693</v>
+        <v>0</v>
       </c>
       <c r="C48" s="5"/>
     </row>
@@ -8876,7 +8876,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5">
-        <v>11.923264557439147</v>
+        <v>0</v>
       </c>
       <c r="C49" s="5"/>
     </row>
@@ -8889,7 +8889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>

--- a/P2P Data Input.xlsx
+++ b/P2P Data Input.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Matlab Folder\Project NTNU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Master's\NTNU\PCDG_Github\PCDGModel-LocalCommunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D366B8DB-09A9-4B96-870D-B50A2FA59047}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9F9E94-DF8D-4A10-8C88-DC62806F08DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8435,7 +8435,7 @@
   <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+      <selection activeCell="E47" sqref="E47:E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/P2P Data Input.xlsx
+++ b/P2P Data Input.xlsx
@@ -8,19 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Master's\NTNU\PCDG_Github\PCDGModel-LocalCommunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9F9E94-DF8D-4A10-8C88-DC62806F08DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932ACA2C-C4A6-4209-96E8-3D48D4834E33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Welcome" sheetId="7" r:id="rId1"/>
-    <sheet name="Sets" sheetId="1" r:id="rId2"/>
-    <sheet name="Demand_houses" sheetId="2" r:id="rId3"/>
-    <sheet name="Elec_price" sheetId="4" r:id="rId4"/>
-    <sheet name="Wind_input" sheetId="3" r:id="rId5"/>
-    <sheet name="PV_input" sheetId="5" r:id="rId6"/>
-    <sheet name="Grid Tariff" sheetId="8" r:id="rId7"/>
-    <sheet name="Battery_input" sheetId="6" r:id="rId8"/>
+    <sheet name="Demand" sheetId="2" r:id="rId2"/>
+    <sheet name="Electricity Price" sheetId="4" r:id="rId3"/>
+    <sheet name="Wind Data" sheetId="3" r:id="rId4"/>
+    <sheet name="PV Data" sheetId="5" r:id="rId5"/>
+    <sheet name="Grid Tariff" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,12 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="27">
   <si>
     <t>Time</t>
-  </si>
-  <si>
-    <t>Houses</t>
   </si>
   <si>
     <t>H1</t>
@@ -125,27 +120,6 @@
   <si>
     <t>H25</t>
   </si>
-  <si>
-    <t>Maximum Battery Capacity (kW)</t>
-  </si>
-  <si>
-    <t>Minimum Battery Capacity (kW)</t>
-  </si>
-  <si>
-    <t>Maximum Charge Rate (kW/hr)</t>
-  </si>
-  <si>
-    <t>Maximum Discharge Rate (kW/hr)</t>
-  </si>
-  <si>
-    <t>Battery Charging Efficiency</t>
-  </si>
-  <si>
-    <t>Battery Discharging Efficiency</t>
-  </si>
-  <si>
-    <t>Decentralized Battery Option Used for the Use Case</t>
-  </si>
 </sst>
 </file>
 
@@ -154,7 +128,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,14 +140,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -196,11 +162,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -612,79 +577,79 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
+      <c r="A10" s="3"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
+      <c r="A11" s="3"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
+      <c r="A12" s="3"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
+      <c r="A13" s="3"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
+      <c r="A14" s="3"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
+      <c r="A15" s="3"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
+      <c r="A16" s="3"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
+      <c r="A17" s="3"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
+      <c r="A18" s="3"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
+      <c r="A19" s="3"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
+      <c r="A20" s="3"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
+      <c r="A21" s="3"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
+      <c r="A22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -693,281 +658,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C49"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z49"/>
   <sheetViews>
@@ -985,119 +675,119 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
       <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>16</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>18</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>19</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>20</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>21</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>22</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>23</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>24</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>26</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>41275</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>0.219</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>1.966</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>1.748</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>0.247</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>0.50900000000000001</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>0.187</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <v>0.77200000000000002</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>0.372</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <v>2.8029999999999999</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="4">
         <v>0.13100000000000001</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="4">
         <v>3.4349999000000002</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="4">
         <v>0.14399999999999999</v>
       </c>
       <c r="N2">
@@ -1144,40 +834,40 @@
       <c r="A3" s="1">
         <v>41275.020833333336</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>0.24099999999999999</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>1.9220001</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>1.0740000000000001</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>0.20399999999999999</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>0.45300000000000001</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>0.191</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>0.53300000000000003</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <v>0.38600000000000001</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <v>2.8559999</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="4">
         <v>0.13100000000000001</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="4">
         <v>3.4049999999999998</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="4">
         <v>0.192</v>
       </c>
       <c r="N3">
@@ -1224,40 +914,40 @@
       <c r="A4" s="1">
         <v>41275.041666666664</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>0.191</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>1.8080000000000001</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>0.995</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>0.161</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>0.5</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>0.13100000000000001</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>0.41</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>0.33100000000000002</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>2.8299998999999998</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <v>0.16500000000000001</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="4">
         <v>3.5079999000000002</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="4">
         <v>0.151</v>
       </c>
       <c r="N4">
@@ -1304,40 +994,40 @@
       <c r="A5" s="1">
         <v>41275.0625</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>0.23499999999999999</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>0.79500000000000004</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>0.76500000000000001</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>0.214</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>0.621</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>0.14599999999999999</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>0.46200000000000002</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>0.39800000000000002</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>2.8699998999999998</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <v>0.16300000000000001</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="4">
         <v>3.4470000000000001</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <v>0.14000000000000001</v>
       </c>
       <c r="N5">
@@ -1384,40 +1074,40 @@
       <c r="A6" s="1">
         <v>41275.083333333336</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>0.182</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>1.2350000000000001</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>0.39900000000000002</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>0.186</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>0.19700000000000001</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>0.115</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>0.56100000000000005</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>0.52900000000000003</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>3.3239999</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <v>0.13100000000000001</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="4">
         <v>2.0059999999999998</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="4">
         <v>0.19700000000000001</v>
       </c>
       <c r="N6">
@@ -1464,40 +1154,40 @@
       <c r="A7" s="1">
         <v>41275.104166666664</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>0.22900000000000001</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>0.92400000000000004</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>0.39700000000000002</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>0.126</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>0.17599999999999999</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>0.14199999999999999</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <v>0.47</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <v>0.39200000000000002</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <v>2.8099999000000002</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="4">
         <v>0.13</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="4">
         <v>0.87</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="4">
         <v>0.109</v>
       </c>
       <c r="N7">
@@ -1544,40 +1234,40 @@
       <c r="A8" s="1">
         <v>41275.125</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>0.19400000000000001</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>1.149</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>0.42599999999999999</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>0.10100000000000001</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>0.21</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>0.13300000000000001</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <v>0.48599999999999999</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <v>0.44400000000000001</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="4">
         <v>2.5539999</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="4">
         <v>0.19400000000000001</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="4">
         <v>0.16700000000000001</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="N8">
@@ -1624,40 +1314,40 @@
       <c r="A9" s="1">
         <v>41275.145833333336</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>0.20100000000000001</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>0.89100000000000001</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>0.439</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>0.21099999999999999</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <v>0.124</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <v>0.46100000000000002</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="4">
         <v>0.38200000000000001</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <v>1.0369999000000001</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="4">
         <v>0.13700000000000001</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="4">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="4">
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="N9">
@@ -1704,40 +1394,40 @@
       <c r="A10" s="1">
         <v>41275.166666666664</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>0.122</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>1.173</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>0.38600000000000001</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>0.151</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <v>0.161</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <v>0.71799999999999997</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <v>0.32300000000000001</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="4">
         <v>0.13500000000000001</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="4">
         <v>0.129</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="4">
         <v>0.53500000000000003</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="4">
         <v>7.8E-2</v>
       </c>
       <c r="N10">
@@ -1784,40 +1474,40 @@
       <c r="A11" s="1">
         <v>41275.1875</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>0.32200000000000001</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>0.37</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>0.152</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>0.253</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <v>0.69099999999999995</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <v>0.36399999999999999</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="4">
         <v>0.14099999999999999</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="4">
         <v>1.294</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="4">
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="N11">
@@ -1864,40 +1554,40 @@
       <c r="A12" s="1">
         <v>41275.208333333336</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>0.123</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>0.55900000000000005</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>0.35799999999999998</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>9.4E-2</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>0.23599999999999999</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <v>0.48099999999999998</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <v>0.73899999999999999</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="4">
         <v>0.29699999999999999</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <v>0.29599999999999999</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="4">
         <v>0.187</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="4">
         <v>0.312</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="4">
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="N12">
@@ -1944,40 +1634,40 @@
       <c r="A13" s="1">
         <v>41275.229166666664</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>0.48499999999999999</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>0.37</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <v>0.214</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <v>0.27</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <v>1.26</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="4">
         <v>0.41299999999999998</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="4">
         <v>0.69599999999999995</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="4">
         <v>0.13</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="4">
         <v>0.14199999999999999</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="4">
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="N13">
@@ -2024,40 +1714,40 @@
       <c r="A14" s="1">
         <v>41275.25</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>0.13</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>0.42699999999999999</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>0.35599999999999998</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <v>0.184</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <v>0.28799999999999998</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <v>1.1319999999999999</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="4">
         <v>0.35599999999999998</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="4">
         <v>0.90100000000000002</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="4">
         <v>0.129</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="4">
         <v>1.1879999999999999</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="4">
         <v>0.26400000000000001</v>
       </c>
       <c r="N14">
@@ -2104,40 +1794,40 @@
       <c r="A15" s="1">
         <v>41275.270833333336</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>0.38</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>0.36899999999999999</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <v>0.20499999999999999</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <v>0.27100000000000002</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="4">
         <v>1.419</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="4">
         <v>0.45800000000000002</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="4">
         <v>1.266</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="4">
         <v>0.158</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="4">
         <v>0.47799999999999998</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="4">
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="N15">
@@ -2184,40 +1874,40 @@
       <c r="A16" s="1">
         <v>41275.291666666664</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>0.126</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>0.106</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>0.45400000000000001</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <v>0.245</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="4">
         <v>0.28100000000000003</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="4">
         <v>0.81399999999999995</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="4">
         <v>0.45900000000000002</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="4">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="4">
         <v>0.17</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="4">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="4">
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="N16">
@@ -2264,40 +1954,40 @@
       <c r="A17" s="1">
         <v>41275.3125</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>0.121</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>0.46600000000000003</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>0.106</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <v>0.20699999999999999</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="4">
         <v>0.251</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="4">
         <v>0.43</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="4">
         <v>0.42899999999999999</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="4">
         <v>0.14099999999999999</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="4">
         <v>0.128</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="4">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="4">
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="N17">
@@ -2344,40 +2034,40 @@
       <c r="A18" s="1">
         <v>41275.333333333336</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>0.11</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>0.09</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>0.40500000000000003</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <v>0.20799999999999999</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="4">
         <v>0.30399999999999999</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="4">
         <v>0.39700000000000002</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="4">
         <v>0.47599999999999998</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="4">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="4">
         <v>0.13</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="4">
         <v>0.15</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="4">
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="N18">
@@ -2424,40 +2114,40 @@
       <c r="A19" s="1">
         <v>41275.354166666664</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>0.106</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>0.06</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>0.379</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>6.3E-2</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <v>0.495</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="4">
         <v>0.20599999999999999</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="4">
         <v>0.4</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="4">
         <v>0.40100000000000002</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="4">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="4">
         <v>0.222</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="4">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" s="4">
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="N19">
@@ -2504,40 +2194,40 @@
       <c r="A20" s="1">
         <v>41275.375</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>9.4E-2</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>0.41699999999999998</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="4">
         <v>0.26700000000000002</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="4">
         <v>0.193</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="4">
         <v>0.36</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="4">
         <v>0.438</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="4">
         <v>0.161</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="4">
         <v>0.21</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L20" s="4">
         <v>9.4E-2</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M20" s="4">
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="N20">
@@ -2584,40 +2274,40 @@
       <c r="A21" s="1">
         <v>41275.395833333336</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>0.122</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>0.13800000000000001</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>0.435</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <v>0.23899999999999999</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="4">
         <v>0.245</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="4">
         <v>0.14499999999999999</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="4">
         <v>0.34799999999999998</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="4">
         <v>0.56699999999999995</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="4">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="4">
         <v>0.18</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="4">
         <v>0.11600000000000001</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M21" s="4">
         <v>0.20300000000000001</v>
       </c>
       <c r="N21">
@@ -2664,40 +2354,40 @@
       <c r="A22" s="1">
         <v>41275.416666666664</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>0.28899999999999998</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>0.83399999999999996</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <v>0.55100000000000005</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="4">
         <v>0.40899999999999997</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="4">
         <v>0.13</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="4">
         <v>0.39100000000000001</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="4">
         <v>0.43</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="4">
         <v>0.41299999999999998</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="4">
         <v>0.17699999999999999</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L22" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M22" s="4">
         <v>0.129</v>
       </c>
       <c r="N22">
@@ -2744,40 +2434,40 @@
       <c r="A23" s="1">
         <v>41275.4375</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>0.124</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>0.17899999999999999</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <v>0.83099999999999996</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="4">
         <v>0.19600000000000001</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="4">
         <v>0.34499999999999997</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="4">
         <v>0.122</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="4">
         <v>0.48899999999999999</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="4">
         <v>0.78</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="4">
         <v>0.19600000000000001</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23" s="4">
         <v>0.19400000000000001</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L23" s="4">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="M23" s="5">
+      <c r="M23" s="4">
         <v>0.17499999999999999</v>
       </c>
       <c r="N23">
@@ -2824,40 +2514,40 @@
       <c r="A24" s="1">
         <v>41275.458333333336</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>0.122</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>0.19600000000000001</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <v>0.626</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="4">
         <v>0.47</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="4">
         <v>1.29</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="4">
         <v>0.14299999999999999</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="4">
         <v>0.42499999999999999</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="4">
         <v>1.0409999999999999</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="4">
         <v>0.25600000000000001</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24" s="4">
         <v>0.13600000000000001</v>
       </c>
-      <c r="L24" s="5">
+      <c r="L24" s="4">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="M24" s="5">
+      <c r="M24" s="4">
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="N24">
@@ -2904,40 +2594,40 @@
       <c r="A25" s="1">
         <v>41275.479166666664</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <v>0.12</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <v>0.191</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <v>0.53500000000000003</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="4">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="4">
         <v>0.82699999999999996</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="4">
         <v>0.122</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="4">
         <v>0.314</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25" s="4">
         <v>0.46800000000000003</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25" s="4">
         <v>0.95799999999999996</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K25" s="4">
         <v>0.13</v>
       </c>
-      <c r="L25" s="5">
+      <c r="L25" s="4">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="M25" s="5">
+      <c r="M25" s="4">
         <v>0.16300000000000001</v>
       </c>
       <c r="N25">
@@ -2984,40 +2674,40 @@
       <c r="A26" s="1">
         <v>41275.5</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <v>0.79400000000000004</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <v>0.192</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <v>0.495</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="4">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="4">
         <v>0.28399999999999997</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="4">
         <v>0.129</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="4">
         <v>0.19400000000000001</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26" s="4">
         <v>0.876</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J26" s="4">
         <v>0.65500000000000003</v>
       </c>
-      <c r="K26" s="5">
+      <c r="K26" s="4">
         <v>0.14000000000000001</v>
       </c>
-      <c r="L26" s="5">
+      <c r="L26" s="4">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M26" s="4">
         <v>0.99399999999999999</v>
       </c>
       <c r="N26">
@@ -3064,40 +2754,40 @@
       <c r="A27" s="1">
         <v>41275.520833333336</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="4">
         <v>0.50700000000000001</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="4">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <v>0.46400000000000002</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="4">
         <v>0.10199999999999999</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="4">
         <v>1.198</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="4">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="4">
         <v>0.20599999999999999</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" s="4">
         <v>0.58699999999999997</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27" s="4">
         <v>0.48099999999999998</v>
       </c>
-      <c r="K27" s="5">
+      <c r="K27" s="4">
         <v>0.189</v>
       </c>
-      <c r="L27" s="5">
+      <c r="L27" s="4">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M27" s="4">
         <v>0.28699999999999998</v>
       </c>
       <c r="N27">
@@ -3144,40 +2834,40 @@
       <c r="A28" s="1">
         <v>41275.541666666664</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="4">
         <v>0.17699999999999999</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="4">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <v>0.379</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="4">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="4">
         <v>0.27800000000000002</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="4">
         <v>0.111</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="4">
         <v>0.19400000000000001</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I28" s="4">
         <v>0.48199999999999998</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J28" s="4">
         <v>0.373</v>
       </c>
-      <c r="K28" s="5">
+      <c r="K28" s="4">
         <v>0.129</v>
       </c>
-      <c r="L28" s="5">
+      <c r="L28" s="4">
         <v>0.17799999999999999</v>
       </c>
-      <c r="M28" s="5">
+      <c r="M28" s="4">
         <v>0.2</v>
       </c>
       <c r="N28">
@@ -3224,40 +2914,40 @@
       <c r="A29" s="1">
         <v>41275.5625</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="4">
         <v>0.16400000000000001</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="4">
         <v>0.13300000000000001</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <v>1.0029999999999999</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="4">
         <v>0.19600000000000001</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="4">
         <v>0.33700000000000002</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="4">
         <v>0.13500000000000001</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="4">
         <v>0.26200000000000001</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I29" s="4">
         <v>0.44</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J29" s="4">
         <v>1.5140001000000001</v>
       </c>
-      <c r="K29" s="5">
+      <c r="K29" s="4">
         <v>0.129</v>
       </c>
-      <c r="L29" s="5">
+      <c r="L29" s="4">
         <v>0.13100000000000001</v>
       </c>
-      <c r="M29" s="5">
+      <c r="M29" s="4">
         <v>0.45100000000000001</v>
       </c>
       <c r="N29">
@@ -3304,40 +2994,40 @@
       <c r="A30" s="1">
         <v>41275.583333333336</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <v>0.308</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="4">
         <v>0.183</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <v>0.38</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="4">
         <v>0.31900000000000001</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="4">
         <v>0.13700000000000001</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30" s="4">
         <v>0.32100000000000001</v>
       </c>
-      <c r="I30" s="5">
+      <c r="I30" s="4">
         <v>0.46100000000000002</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J30" s="4">
         <v>2.3269999000000001</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="4">
         <v>0.157</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="4">
         <v>0.11600000000000001</v>
       </c>
-      <c r="M30" s="5">
+      <c r="M30" s="4">
         <v>0.10199999999999999</v>
       </c>
       <c r="N30">
@@ -3384,40 +3074,40 @@
       <c r="A31" s="1">
         <v>41275.604166666664</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="4">
         <v>0.28599999999999998</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="4">
         <v>0.26600000000000001</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="4">
         <v>1.145</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="4">
         <v>0.378</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="4">
         <v>0.25900000000000001</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="4">
         <v>0.112</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="4">
         <v>0.53300000000000003</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I31" s="4">
         <v>0.377</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31" s="4">
         <v>0.92100000000000004</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K31" s="4">
         <v>0.17100000000000001</v>
       </c>
-      <c r="L31" s="5">
+      <c r="L31" s="4">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="M31" s="5">
+      <c r="M31" s="4">
         <v>0.13300000000000001</v>
       </c>
       <c r="N31">
@@ -3464,40 +3154,40 @@
       <c r="A32" s="1">
         <v>41275.625</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="4">
         <v>0.13700000000000001</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="4">
         <v>0.16700000000000001</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="4">
         <v>0.78800000000000003</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="4">
         <v>0.17100000000000001</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="4">
         <v>0.311</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="4">
         <v>0.13900000000000001</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="4">
         <v>0.55400000000000005</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I32" s="4">
         <v>0.36799999999999999</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J32" s="4">
         <v>0.68799999999999994</v>
       </c>
-      <c r="K32" s="5">
+      <c r="K32" s="4">
         <v>0.13</v>
       </c>
-      <c r="L32" s="5">
+      <c r="L32" s="4">
         <v>0.1</v>
       </c>
-      <c r="M32" s="5">
+      <c r="M32" s="4">
         <v>0.154</v>
       </c>
       <c r="N32">
@@ -3544,40 +3234,40 @@
       <c r="A33" s="1">
         <v>41275.645833333336</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="4">
         <v>0.121</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="4">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="4">
         <v>0.72199999999999998</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="4">
         <v>0.30499999999999999</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="4">
         <v>1.2869999000000001</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="4">
         <v>0.13200000000000001</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="4">
         <v>0.73099999999999998</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I33" s="4">
         <v>0.46600000000000003</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J33" s="4">
         <v>0.60799999999999998</v>
       </c>
-      <c r="K33" s="5">
+      <c r="K33" s="4">
         <v>0.13100000000000001</v>
       </c>
-      <c r="L33" s="5">
+      <c r="L33" s="4">
         <v>0.11600000000000001</v>
       </c>
-      <c r="M33" s="5">
+      <c r="M33" s="4">
         <v>0.86799999999999999</v>
       </c>
       <c r="N33">
@@ -3624,40 +3314,40 @@
       <c r="A34" s="1">
         <v>41275.666666666664</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="4">
         <v>0.127</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="4">
         <v>0.11</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="4">
         <v>0.69899999999999995</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="4">
         <v>0.52800000000000002</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="4">
         <v>1.2819999</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="4">
         <v>0.114</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H34" s="4">
         <v>0.72699999999999998</v>
       </c>
-      <c r="I34" s="5">
+      <c r="I34" s="4">
         <v>0.45400000000000001</v>
       </c>
-      <c r="J34" s="5">
+      <c r="J34" s="4">
         <v>0.78300000000000003</v>
       </c>
-      <c r="K34" s="5">
+      <c r="K34" s="4">
         <v>0.17199999999999999</v>
       </c>
-      <c r="L34" s="5">
+      <c r="L34" s="4">
         <v>0.17899999999999999</v>
       </c>
-      <c r="M34" s="5">
+      <c r="M34" s="4">
         <v>0.27</v>
       </c>
       <c r="N34">
@@ -3704,40 +3394,40 @@
       <c r="A35" s="1">
         <v>41275.6875</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="4">
         <v>0.17699999999999999</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="4">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="4">
         <v>1.0529999999999999</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="4">
         <v>0.35599999999999998</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="4">
         <v>2.0350001</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="4">
         <v>0.13700000000000001</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="4">
         <v>0.90700000000000003</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I35" s="4">
         <v>0.77800000000000002</v>
       </c>
-      <c r="J35" s="5">
+      <c r="J35" s="4">
         <v>0.57999999999999996</v>
       </c>
-      <c r="K35" s="5">
+      <c r="K35" s="4">
         <v>0.159</v>
       </c>
-      <c r="L35" s="5">
+      <c r="L35" s="4">
         <v>0.112</v>
       </c>
-      <c r="M35" s="5">
+      <c r="M35" s="4">
         <v>0.151</v>
       </c>
       <c r="N35">
@@ -3784,40 +3474,40 @@
       <c r="A36" s="1">
         <v>41275.708333333336</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="4">
         <v>0.32700000000000001</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="4">
         <v>0.26100000000000001</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="4">
         <v>1.2180001</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="4">
         <v>0.24399999999999999</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="4">
         <v>2.1400001</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="4">
         <v>0.157</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36" s="4">
         <v>1.1020000000000001</v>
       </c>
-      <c r="I36" s="5">
+      <c r="I36" s="4">
         <v>0.92500000000000004</v>
       </c>
-      <c r="J36" s="5">
+      <c r="J36" s="4">
         <v>0.80200000000000005</v>
       </c>
-      <c r="K36" s="5">
+      <c r="K36" s="4">
         <v>0.13100000000000001</v>
       </c>
-      <c r="L36" s="5">
+      <c r="L36" s="4">
         <v>0.254</v>
       </c>
-      <c r="M36" s="5">
+      <c r="M36" s="4">
         <v>0.129</v>
       </c>
       <c r="N36">
@@ -3864,40 +3554,40 @@
       <c r="A37" s="1">
         <v>41275.729166666664</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="4">
         <v>0.25700000000000001</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="4">
         <v>0.247</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="4">
         <v>1.173</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="4">
         <v>0.32</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="4">
         <v>1.3430001</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="4">
         <v>0.16400000000000001</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37" s="4">
         <v>0.97099999999999997</v>
       </c>
-      <c r="I37" s="5">
+      <c r="I37" s="4">
         <v>1.081</v>
       </c>
-      <c r="J37" s="5">
+      <c r="J37" s="4">
         <v>0.77100000000000002</v>
       </c>
-      <c r="K37" s="5">
+      <c r="K37" s="4">
         <v>0.13100000000000001</v>
       </c>
-      <c r="L37" s="5">
+      <c r="L37" s="4">
         <v>0.22600000000000001</v>
       </c>
-      <c r="M37" s="5">
+      <c r="M37" s="4">
         <v>0.17799999999999999</v>
       </c>
       <c r="N37">
@@ -3944,40 +3634,40 @@
       <c r="A38" s="1">
         <v>41275.75</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="4">
         <v>0.28499999999999998</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="4">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="4">
         <v>1.323</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="4">
         <v>0.33600000000000002</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="4">
         <v>1.345</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="4">
         <v>0.191</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38" s="4">
         <v>0.995</v>
       </c>
-      <c r="I38" s="5">
+      <c r="I38" s="4">
         <v>1.26</v>
       </c>
-      <c r="J38" s="5">
+      <c r="J38" s="4">
         <v>0.82099999999999995</v>
       </c>
-      <c r="K38" s="5">
+      <c r="K38" s="4">
         <v>0.188</v>
       </c>
-      <c r="L38" s="5">
+      <c r="L38" s="4">
         <v>0.14499999999999999</v>
       </c>
-      <c r="M38" s="5">
+      <c r="M38" s="4">
         <v>0.25</v>
       </c>
       <c r="N38">
@@ -4024,40 +3714,40 @@
       <c r="A39" s="1">
         <v>41275.770833333336</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="4">
         <v>0.22600000000000001</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="4">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="4">
         <v>1.1319999999999999</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="4">
         <v>0.75</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="4">
         <v>2.3099999000000002</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="4">
         <v>0.16800000000000001</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39" s="4">
         <v>1.448</v>
       </c>
-      <c r="I39" s="5">
+      <c r="I39" s="4">
         <v>1.335</v>
       </c>
-      <c r="J39" s="5">
+      <c r="J39" s="4">
         <v>0.69199999999999995</v>
       </c>
-      <c r="K39" s="5">
+      <c r="K39" s="4">
         <v>0.14399999999999999</v>
       </c>
-      <c r="L39" s="5">
+      <c r="L39" s="4">
         <v>0.126</v>
       </c>
-      <c r="M39" s="5">
+      <c r="M39" s="4">
         <v>0.20300000000000001</v>
       </c>
       <c r="N39">
@@ -4104,40 +3794,40 @@
       <c r="A40" s="1">
         <v>41275.791666666664</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="4">
         <v>0.25800000000000001</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="4">
         <v>0.13600000000000001</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="4">
         <v>1.087</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="4">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="4">
         <v>1.3329998999999999</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G40" s="4">
         <v>0.23400000000000001</v>
       </c>
-      <c r="H40" s="5">
+      <c r="H40" s="4">
         <v>1.7809999999999999</v>
       </c>
-      <c r="I40" s="5">
+      <c r="I40" s="4">
         <v>1.3109999999999999</v>
       </c>
-      <c r="J40" s="5">
+      <c r="J40" s="4">
         <v>0.59199999999999997</v>
       </c>
-      <c r="K40" s="5">
+      <c r="K40" s="4">
         <v>0.128</v>
       </c>
-      <c r="L40" s="5">
+      <c r="L40" s="4">
         <v>0.33800000000000002</v>
       </c>
-      <c r="M40" s="5">
+      <c r="M40" s="4">
         <v>0.26900000000000002</v>
       </c>
       <c r="N40">
@@ -4184,40 +3874,40 @@
       <c r="A41" s="1">
         <v>41275.8125</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="4">
         <v>0.20899999999999999</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="4">
         <v>0.14399999999999999</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="4">
         <v>1.1299999999999999</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="4">
         <v>0.35699999999999998</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41" s="4">
         <v>0.61399999999999999</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41" s="4">
         <v>0.43</v>
       </c>
-      <c r="H41" s="5">
+      <c r="H41" s="4">
         <v>1.2180001</v>
       </c>
-      <c r="I41" s="5">
+      <c r="I41" s="4">
         <v>1.216</v>
       </c>
-      <c r="J41" s="5">
+      <c r="J41" s="4">
         <v>0.89700000000000002</v>
       </c>
-      <c r="K41" s="5">
+      <c r="K41" s="4">
         <v>0.129</v>
       </c>
-      <c r="L41" s="5">
+      <c r="L41" s="4">
         <v>0.185</v>
       </c>
-      <c r="M41" s="5">
+      <c r="M41" s="4">
         <v>0.78300000000000003</v>
       </c>
       <c r="N41">
@@ -4264,40 +3954,40 @@
       <c r="A42" s="1">
         <v>41275.833333333336</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="4">
         <v>0.88600000000000001</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="4">
         <v>0.186</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="4">
         <v>1.2370000000000001</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="4">
         <v>0.33900000000000002</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="4">
         <v>0.67400000000000004</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G42" s="4">
         <v>1.3720000000000001</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H42" s="4">
         <v>1.1080000000000001</v>
       </c>
-      <c r="I42" s="5">
+      <c r="I42" s="4">
         <v>1.054</v>
       </c>
-      <c r="J42" s="5">
+      <c r="J42" s="4">
         <v>0.43</v>
       </c>
-      <c r="K42" s="5">
+      <c r="K42" s="4">
         <v>0.19400000000000001</v>
       </c>
-      <c r="L42" s="5">
+      <c r="L42" s="4">
         <v>0.11899999999999999</v>
       </c>
-      <c r="M42" s="5">
+      <c r="M42" s="4">
         <v>0.90600000000000003</v>
       </c>
       <c r="N42">
@@ -4344,40 +4034,40 @@
       <c r="A43" s="1">
         <v>41275.854166666664</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="4">
         <v>0.57299999999999995</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="4">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="4">
         <v>1.605</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="4">
         <v>0.35599999999999998</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F43" s="4">
         <v>1.5420001000000001</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G43" s="4">
         <v>1.258</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H43" s="4">
         <v>1.0700000999999999</v>
       </c>
-      <c r="I43" s="5">
+      <c r="I43" s="4">
         <v>0.95199999999999996</v>
       </c>
-      <c r="J43" s="5">
+      <c r="J43" s="4">
         <v>0.495</v>
       </c>
-      <c r="K43" s="5">
+      <c r="K43" s="4">
         <v>0.13300000000000001</v>
       </c>
-      <c r="L43" s="5">
+      <c r="L43" s="4">
         <v>0.112</v>
       </c>
-      <c r="M43" s="5">
+      <c r="M43" s="4">
         <v>0.86</v>
       </c>
       <c r="N43">
@@ -4424,40 +4114,40 @@
       <c r="A44" s="1">
         <v>41275.875</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="4">
         <v>0.25</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="4">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="4">
         <v>1.411</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="4">
         <v>0.34599999999999997</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44" s="4">
         <v>1.0249999999999999</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G44" s="4">
         <v>0.67300000000000004</v>
       </c>
-      <c r="H44" s="5">
+      <c r="H44" s="4">
         <v>1.0369999000000001</v>
       </c>
-      <c r="I44" s="5">
+      <c r="I44" s="4">
         <v>0.74399999999999999</v>
       </c>
-      <c r="J44" s="5">
+      <c r="J44" s="4">
         <v>0.34499999999999997</v>
       </c>
-      <c r="K44" s="5">
+      <c r="K44" s="4">
         <v>0.129</v>
       </c>
-      <c r="L44" s="5">
+      <c r="L44" s="4">
         <v>0.115</v>
       </c>
-      <c r="M44" s="5">
+      <c r="M44" s="4">
         <v>0.74</v>
       </c>
       <c r="N44">
@@ -4504,40 +4194,40 @@
       <c r="A45" s="1">
         <v>41275.895833333336</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="4">
         <v>0.29199999999999998</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="4">
         <v>0.113</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="4">
         <v>1.2029999</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="4">
         <v>0.45100000000000001</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F45" s="4">
         <v>0.69499999999999995</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G45" s="4">
         <v>0.307</v>
       </c>
-      <c r="H45" s="5">
+      <c r="H45" s="4">
         <v>1.089</v>
       </c>
-      <c r="I45" s="5">
+      <c r="I45" s="4">
         <v>0.88900000000000001</v>
       </c>
-      <c r="J45" s="5">
+      <c r="J45" s="4">
         <v>1.476</v>
       </c>
-      <c r="K45" s="5">
+      <c r="K45" s="4">
         <v>0.128</v>
       </c>
-      <c r="L45" s="5">
+      <c r="L45" s="4">
         <v>0.114</v>
       </c>
-      <c r="M45" s="5">
+      <c r="M45" s="4">
         <v>0.77100000000000002</v>
       </c>
       <c r="N45">
@@ -4584,40 +4274,40 @@
       <c r="A46" s="1">
         <v>41275.916666666664</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="4">
         <v>0.23100000000000001</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="4">
         <v>0.11</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="4">
         <v>1.2290000000000001</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="4">
         <v>0.61199999999999999</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F46" s="4">
         <v>1.1950000999999999</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G46" s="4">
         <v>0.20300000000000001</v>
       </c>
-      <c r="H46" s="5">
+      <c r="H46" s="4">
         <v>1.038</v>
       </c>
-      <c r="I46" s="5">
+      <c r="I46" s="4">
         <v>0.99399999999999999</v>
       </c>
-      <c r="J46" s="5">
+      <c r="J46" s="4">
         <v>0.13300000000000001</v>
       </c>
-      <c r="K46" s="5">
+      <c r="K46" s="4">
         <v>0.19700000000000001</v>
       </c>
-      <c r="L46" s="5">
+      <c r="L46" s="4">
         <v>0.112</v>
       </c>
-      <c r="M46" s="5">
+      <c r="M46" s="4">
         <v>0.66300000000000003</v>
       </c>
       <c r="N46">
@@ -4664,40 +4354,40 @@
       <c r="A47" s="1">
         <v>41275.9375</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="4">
         <v>0.28100000000000003</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="4">
         <v>0.113</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="4">
         <v>1.0669999999999999</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E47" s="4">
         <v>0.46</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F47" s="4">
         <v>0.68600000000000005</v>
       </c>
-      <c r="G47" s="5">
+      <c r="G47" s="4">
         <v>0.16800000000000001</v>
       </c>
-      <c r="H47" s="5">
+      <c r="H47" s="4">
         <v>1.0580000000000001</v>
       </c>
-      <c r="I47" s="5">
+      <c r="I47" s="4">
         <v>0.89100000000000001</v>
       </c>
-      <c r="J47" s="5">
+      <c r="J47" s="4">
         <v>0.23300000000000001</v>
       </c>
-      <c r="K47" s="5">
+      <c r="K47" s="4">
         <v>0.129</v>
       </c>
-      <c r="L47" s="5">
+      <c r="L47" s="4">
         <v>0.128</v>
       </c>
-      <c r="M47" s="5">
+      <c r="M47" s="4">
         <v>0.33</v>
       </c>
       <c r="N47">
@@ -4744,40 +4434,40 @@
       <c r="A48" s="1">
         <v>41275.958333333336</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" s="4">
         <v>0.253</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="4">
         <v>0.10199999999999999</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="4">
         <v>1.145</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="4">
         <v>0.34599999999999997</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F48" s="4">
         <v>0.69099999999999995</v>
       </c>
-      <c r="G48" s="5">
+      <c r="G48" s="4">
         <v>0.19400000000000001</v>
       </c>
-      <c r="H48" s="5">
+      <c r="H48" s="4">
         <v>1.21</v>
       </c>
-      <c r="I48" s="5">
+      <c r="I48" s="4">
         <v>0.56999999999999995</v>
       </c>
-      <c r="J48" s="5">
+      <c r="J48" s="4">
         <v>0.36899999999999999</v>
       </c>
-      <c r="K48" s="5">
+      <c r="K48" s="4">
         <v>0.13</v>
       </c>
-      <c r="L48" s="5">
+      <c r="L48" s="4">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="M48" s="5">
+      <c r="M48" s="4">
         <v>0.24299999999999999</v>
       </c>
       <c r="N48">
@@ -4824,40 +4514,40 @@
       <c r="A49" s="1">
         <v>41275.979166666664</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="4">
         <v>0.25800000000000001</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="4">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="4">
         <v>1.0860000000000001</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E49" s="4">
         <v>0.18099999999999999</v>
       </c>
-      <c r="F49" s="5">
+      <c r="F49" s="4">
         <v>0.59</v>
       </c>
-      <c r="G49" s="5">
+      <c r="G49" s="4">
         <v>0.19400000000000001</v>
       </c>
-      <c r="H49" s="5">
+      <c r="H49" s="4">
         <v>0.79200000000000004</v>
       </c>
-      <c r="I49" s="5">
+      <c r="I49" s="4">
         <v>0.439</v>
       </c>
-      <c r="J49" s="5">
+      <c r="J49" s="4">
         <v>0.14399999999999999</v>
       </c>
-      <c r="K49" s="5">
+      <c r="K49" s="4">
         <v>0.13700000000000001</v>
       </c>
-      <c r="L49" s="5">
+      <c r="L49" s="4">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="M49" s="5">
+      <c r="M49" s="4">
         <v>0.218</v>
       </c>
       <c r="N49">
@@ -4905,7 +4595,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B49"/>
   <sheetViews>
@@ -4920,390 +4610,390 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>13.603551502103954</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>14.02281695854623</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>13.635802691061054</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>12.410257510691327</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>12.023243243206151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5">
-        <v>13.603551502103954</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
-        <v>14.02281695854623</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5">
-        <v>13.635802691061054</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5">
+      <c r="B7" s="4">
+        <v>11.687830878052331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>10.37198236860273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>9.7656600162092868</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>9.7366339461479008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>9.4947500289696638</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>9.6173045470066363</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>9.6011789525280875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4">
+        <v>9.5979538336323778</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4">
+        <v>9.5753780013624112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4">
+        <v>9.8978898909333886</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4">
+        <v>9.9849681011175537</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4">
+        <v>10.136548689215914</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4">
+        <v>10.001093695596103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4">
+        <v>10.094622143571687</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4">
+        <v>10.923477699769105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4">
+        <v>11.587852192285327</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4">
+        <v>11.613653143451005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4">
+        <v>15.448319510449963</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4">
+        <v>15.141933215357533</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4">
+        <v>14.587212765295444</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4">
+        <v>16.138494954131861</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4">
+        <v>13.951864342840611</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4">
+        <v>14.213098973393107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4">
+        <v>14.109895168730393</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4">
+        <v>13.106883192164645</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4">
+        <v>15.241911901124535</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4">
+        <v>15.241911901124535</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4">
+        <v>15.299964041247311</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4">
+        <v>16.899623013519378</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4">
+        <v>20.318249042971765</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4">
+        <v>19.689350858308352</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4">
+        <v>17.570447743827014</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4">
+        <v>17.999388556956418</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4">
+        <v>14.635589548731094</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4">
+        <v>15.596674979652613</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4">
+        <v>15.267712852290213</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4">
+        <v>15.422518559284285</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4">
+        <v>12.887575107256378</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4">
+        <v>12.777921064802245</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4">
         <v>12.410257510691327</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5">
-        <v>12.023243243206151</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5">
-        <v>11.687830878052331</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5">
-        <v>10.37198236860273</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5">
-        <v>9.7656600162092868</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5">
-        <v>9.7366339461479008</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5">
-        <v>9.4947500289696638</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5">
-        <v>9.6173045470066363</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5">
-        <v>9.6011789525280875</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5">
-        <v>9.5979538336323778</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5">
-        <v>9.5753780013624112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5">
-        <v>9.8978898909333886</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5">
-        <v>9.9849681011175537</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
-        <v>17</v>
-      </c>
-      <c r="B18" s="5">
-        <v>10.136548689215914</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
-        <v>18</v>
-      </c>
-      <c r="B19" s="5">
-        <v>10.001093695596103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
-        <v>19</v>
-      </c>
-      <c r="B20" s="5">
-        <v>10.094622143571687</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5">
-        <v>10.923477699769105</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
-        <v>21</v>
-      </c>
-      <c r="B22" s="5">
-        <v>11.587852192285327</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
-        <v>22</v>
-      </c>
-      <c r="B23" s="5">
-        <v>11.613653143451005</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
-        <v>23</v>
-      </c>
-      <c r="B24" s="5">
-        <v>15.448319510449963</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
-        <v>24</v>
-      </c>
-      <c r="B25" s="5">
-        <v>15.141933215357533</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
-        <v>25</v>
-      </c>
-      <c r="B26" s="5">
-        <v>14.587212765295444</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
-        <v>26</v>
-      </c>
-      <c r="B27" s="5">
-        <v>16.138494954131861</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
-        <v>27</v>
-      </c>
-      <c r="B28" s="5">
-        <v>13.951864342840611</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="5">
-        <v>28</v>
-      </c>
-      <c r="B29" s="5">
-        <v>14.213098973393107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
-        <v>29</v>
-      </c>
-      <c r="B30" s="5">
-        <v>14.109895168730393</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
-        <v>30</v>
-      </c>
-      <c r="B31" s="5">
-        <v>13.106883192164645</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="5">
-        <v>31</v>
-      </c>
-      <c r="B32" s="5">
-        <v>15.241911901124535</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
-        <v>32</v>
-      </c>
-      <c r="B33" s="5">
-        <v>15.241911901124535</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="5">
-        <v>33</v>
-      </c>
-      <c r="B34" s="5">
-        <v>15.299964041247311</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="5">
-        <v>34</v>
-      </c>
-      <c r="B35" s="5">
-        <v>16.899623013519378</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="5">
-        <v>35</v>
-      </c>
-      <c r="B36" s="5">
-        <v>20.318249042971765</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="5">
-        <v>36</v>
-      </c>
-      <c r="B37" s="5">
-        <v>19.689350858308352</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="5">
-        <v>37</v>
-      </c>
-      <c r="B38" s="5">
-        <v>17.570447743827014</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="5">
-        <v>38</v>
-      </c>
-      <c r="B39" s="5">
-        <v>17.999388556956418</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="5">
-        <v>39</v>
-      </c>
-      <c r="B40" s="5">
-        <v>14.635589548731094</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="5">
-        <v>40</v>
-      </c>
-      <c r="B41" s="5">
-        <v>15.596674979652613</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="5">
-        <v>41</v>
-      </c>
-      <c r="B42" s="5">
-        <v>15.267712852290213</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="5">
-        <v>42</v>
-      </c>
-      <c r="B43" s="5">
-        <v>15.422518559284285</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="5">
-        <v>43</v>
-      </c>
-      <c r="B44" s="5">
-        <v>12.887575107256378</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="5">
-        <v>44</v>
-      </c>
-      <c r="B45" s="5">
-        <v>12.777921064802245</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="5">
-        <v>45</v>
-      </c>
-      <c r="B46" s="5">
-        <v>12.410257510691327</v>
-      </c>
-    </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="5">
+      <c r="A47" s="4">
         <v>46</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="4">
         <v>12.413482629587037</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
+      <c r="A48" s="4">
         <v>47</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" s="4">
         <v>11.839411466150693</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="5">
+      <c r="A49" s="4">
         <v>48</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="4">
         <v>11.923264557439147</v>
       </c>
     </row>
@@ -5312,7 +5002,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z49"/>
   <sheetViews>
@@ -5327,79 +5017,79 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
       <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>16</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>18</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>19</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>20</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>21</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>22</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>23</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>24</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>26</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
@@ -6367,11 +6057,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Z49"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
       <selection activeCell="AF9" sqref="AF9"/>
     </sheetView>
   </sheetViews>
@@ -6382,79 +6072,79 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
       <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>16</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>18</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>19</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>20</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>21</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>22</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>23</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>24</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>26</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
@@ -8430,11 +8120,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3803DCFA-E8F2-414B-AB26-F0C29419DDF6}">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="E47" sqref="E47:E48"/>
     </sheetView>
   </sheetViews>
@@ -8445,514 +8135,442 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5"/>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
-        <v>0</v>
-      </c>
-      <c r="C8" s="5"/>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
-        <v>0</v>
-      </c>
-      <c r="C9" s="5"/>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="5">
-        <v>0</v>
-      </c>
-      <c r="C10" s="5"/>
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="5">
-        <v>0</v>
-      </c>
-      <c r="C11" s="5"/>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="5">
-        <v>0</v>
-      </c>
-      <c r="C12" s="5"/>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="5">
-        <v>0</v>
-      </c>
-      <c r="C13" s="5"/>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="5">
-        <v>0</v>
-      </c>
-      <c r="C14" s="5"/>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="5">
-        <v>0</v>
-      </c>
-      <c r="C15" s="5"/>
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="5">
-        <v>0</v>
-      </c>
-      <c r="C16" s="5"/>
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="5">
-        <v>0</v>
-      </c>
-      <c r="C17" s="5"/>
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="5">
-        <v>0</v>
-      </c>
-      <c r="C18" s="5"/>
+      <c r="B18" s="4">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="5">
-        <v>0</v>
-      </c>
-      <c r="C19" s="5"/>
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="5">
-        <v>0</v>
-      </c>
-      <c r="C20" s="5"/>
+      <c r="B20" s="4">
+        <v>0</v>
+      </c>
+      <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="5">
-        <v>0</v>
-      </c>
-      <c r="C21" s="5"/>
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="5">
-        <v>0</v>
-      </c>
-      <c r="C22" s="5"/>
+      <c r="B22" s="4">
+        <v>0</v>
+      </c>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="5">
-        <v>0</v>
-      </c>
-      <c r="C23" s="5"/>
+      <c r="B23" s="4">
+        <v>0</v>
+      </c>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="5">
-        <v>0</v>
-      </c>
-      <c r="C24" s="5"/>
+      <c r="B24" s="4">
+        <v>0</v>
+      </c>
+      <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
+      <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="5">
-        <v>0</v>
-      </c>
-      <c r="C25" s="5"/>
+      <c r="B25" s="4">
+        <v>0</v>
+      </c>
+      <c r="C25" s="4"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
+      <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="5">
-        <v>0</v>
-      </c>
-      <c r="C26" s="5"/>
+      <c r="B26" s="4">
+        <v>0</v>
+      </c>
+      <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
+      <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="5">
-        <v>0</v>
-      </c>
-      <c r="C27" s="5"/>
+      <c r="B27" s="4">
+        <v>0</v>
+      </c>
+      <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
+      <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="5">
-        <v>0</v>
-      </c>
-      <c r="C28" s="5"/>
+      <c r="B28" s="4">
+        <v>0</v>
+      </c>
+      <c r="C28" s="4"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="5">
+      <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" s="5">
-        <v>0</v>
-      </c>
-      <c r="C29" s="5"/>
+      <c r="B29" s="4">
+        <v>0</v>
+      </c>
+      <c r="C29" s="4"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
+      <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="5">
-        <v>0</v>
-      </c>
-      <c r="C30" s="5"/>
+      <c r="B30" s="4">
+        <v>0</v>
+      </c>
+      <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
+      <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="5">
-        <v>0</v>
-      </c>
-      <c r="C31" s="5"/>
+      <c r="B31" s="4">
+        <v>0</v>
+      </c>
+      <c r="C31" s="4"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="5">
+      <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="5">
-        <v>0</v>
-      </c>
-      <c r="C32" s="5"/>
+      <c r="B32" s="4">
+        <v>0</v>
+      </c>
+      <c r="C32" s="4"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
+      <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" s="5">
-        <v>0</v>
-      </c>
-      <c r="C33" s="5"/>
+      <c r="B33" s="4">
+        <v>0</v>
+      </c>
+      <c r="C33" s="4"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="5">
+      <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="B34" s="5">
-        <v>0</v>
-      </c>
-      <c r="C34" s="5"/>
+      <c r="B34" s="4">
+        <v>0</v>
+      </c>
+      <c r="C34" s="4"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="5">
+      <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35" s="5">
-        <v>0</v>
-      </c>
-      <c r="C35" s="5"/>
+      <c r="B35" s="4">
+        <v>0</v>
+      </c>
+      <c r="C35" s="4"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="5">
+      <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36" s="5">
-        <v>0</v>
-      </c>
-      <c r="C36" s="5"/>
+      <c r="B36" s="4">
+        <v>0</v>
+      </c>
+      <c r="C36" s="4"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="5">
+      <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="5">
-        <v>0</v>
-      </c>
-      <c r="C37" s="5"/>
+      <c r="B37" s="4">
+        <v>0</v>
+      </c>
+      <c r="C37" s="4"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="5">
+      <c r="A38" s="4">
         <v>37</v>
       </c>
-      <c r="B38" s="5">
-        <v>0</v>
-      </c>
-      <c r="C38" s="5"/>
+      <c r="B38" s="4">
+        <v>0</v>
+      </c>
+      <c r="C38" s="4"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="5">
+      <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39" s="5">
-        <v>0</v>
-      </c>
-      <c r="C39" s="5"/>
+      <c r="B39" s="4">
+        <v>0</v>
+      </c>
+      <c r="C39" s="4"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="5">
+      <c r="A40" s="4">
         <v>39</v>
       </c>
-      <c r="B40" s="5">
-        <v>0</v>
-      </c>
-      <c r="C40" s="5"/>
+      <c r="B40" s="4">
+        <v>0</v>
+      </c>
+      <c r="C40" s="4"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="5">
+      <c r="A41" s="4">
         <v>40</v>
       </c>
-      <c r="B41" s="5">
-        <v>0</v>
-      </c>
-      <c r="C41" s="5"/>
+      <c r="B41" s="4">
+        <v>0</v>
+      </c>
+      <c r="C41" s="4"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="5">
+      <c r="A42" s="4">
         <v>41</v>
       </c>
-      <c r="B42" s="5">
-        <v>0</v>
-      </c>
-      <c r="C42" s="5"/>
+      <c r="B42" s="4">
+        <v>0</v>
+      </c>
+      <c r="C42" s="4"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="5">
+      <c r="A43" s="4">
         <v>42</v>
       </c>
-      <c r="B43" s="5">
-        <v>0</v>
-      </c>
-      <c r="C43" s="5"/>
+      <c r="B43" s="4">
+        <v>0</v>
+      </c>
+      <c r="C43" s="4"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="5">
+      <c r="A44" s="4">
         <v>43</v>
       </c>
-      <c r="B44" s="5">
-        <v>0</v>
-      </c>
-      <c r="C44" s="5"/>
+      <c r="B44" s="4">
+        <v>0</v>
+      </c>
+      <c r="C44" s="4"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="5">
+      <c r="A45" s="4">
         <v>44</v>
       </c>
-      <c r="B45" s="5">
-        <v>0</v>
-      </c>
-      <c r="C45" s="5"/>
+      <c r="B45" s="4">
+        <v>0</v>
+      </c>
+      <c r="C45" s="4"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="5">
+      <c r="A46" s="4">
         <v>45</v>
       </c>
-      <c r="B46" s="5">
-        <v>0</v>
-      </c>
-      <c r="C46" s="5"/>
+      <c r="B46" s="4">
+        <v>0</v>
+      </c>
+      <c r="C46" s="4"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="5">
+      <c r="A47" s="4">
         <v>46</v>
       </c>
-      <c r="B47" s="5">
-        <v>0</v>
-      </c>
-      <c r="C47" s="5"/>
+      <c r="B47" s="4">
+        <v>0</v>
+      </c>
+      <c r="C47" s="4"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
+      <c r="A48" s="4">
         <v>47</v>
       </c>
-      <c r="B48" s="5">
-        <v>0</v>
-      </c>
-      <c r="C48" s="5"/>
+      <c r="B48" s="4">
+        <v>0</v>
+      </c>
+      <c r="C48" s="4"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="5">
+      <c r="A49" s="4">
         <v>48</v>
       </c>
-      <c r="B49" s="5">
-        <v>0</v>
-      </c>
-      <c r="C49" s="5"/>
+      <c r="B49" s="4">
+        <v>0</v>
+      </c>
+      <c r="C49" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="50.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/P2P Data Input.xlsx
+++ b/P2P Data Input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Master's\NTNU\PCDG_Github\PCDGModel-LocalCommunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932ACA2C-C4A6-4209-96E8-3D48D4834E33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41ADE45-B5DB-47CE-B0E4-F2FEA523390E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Welcome" sheetId="7" r:id="rId1"/>
@@ -192,13 +192,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:rowOff>182878</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>68579</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -213,8 +213,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="219075" y="190499"/>
-          <a:ext cx="4305299" cy="2657476"/>
+          <a:off x="219075" y="182878"/>
+          <a:ext cx="4305299" cy="3360421"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -248,9 +248,86 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Welcome!</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>- The Excel spreadsheet is split into six different sheets: Sets, Demand_houses, Elec_price, Wind_Input, PV_input, and Battery_input. </a:t>
+            <a:t>- The Excel spreadsheet is split into six different sheets: </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>   Demand, Electricity</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> P</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>rice, Wind Data, PV</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Data and Grid Tariff</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Demand</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>represents the power demand per time period. </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -259,7 +336,23 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>- Demand_houses represents the power demand per time period. </a:t>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Electricity</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t> P</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>rice </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>represents the electricity price per time period.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -268,7 +361,35 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>- Elec_price represents the electricity price per time period.</a:t>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Wind</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t> Data </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>and </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>PV</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t> Data </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>represent the wind and PV per time period, for all houses that have solar and wind turbine systems.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -277,7 +398,19 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>- Wind_input and PV_input represent the wind and PV per time period, for all houses that have solar and wind turbine systems.</a:t>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Grid Tariff </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>represents the feed-in</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>- tariff for each time step</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -286,17 +419,25 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>- Battery_input represents the various characteristics of home batteries. Currently our model is set up assuming everyone within the trading network has the same battery. </a:t>
+            <a:t>Currently our model is set up assuming everyone within the trading network has the same battery.  A common battery can</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> be allocated to all participating houses.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>We have also built in a case where none of the houses posess a battery.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Welcome!</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -570,7 +711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E8A0DD-D966-47A7-ABCA-5164E3F7264C}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
@@ -6061,7 +6202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Z49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="AF9" sqref="AF9"/>
     </sheetView>
   </sheetViews>

--- a/P2P Data Input.xlsx
+++ b/P2P Data Input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Master's\NTNU\PCDG_Github\PCDGModel-LocalCommunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41ADE45-B5DB-47CE-B0E4-F2FEA523390E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D039185-805C-4D76-85F2-67443DD8144B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Welcome" sheetId="7" r:id="rId1"/>
@@ -711,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E8A0DD-D966-47A7-ABCA-5164E3F7264C}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -802,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z49"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AB12" sqref="AB12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
